--- a/【名前】通勤交通費精算書（2022.6.1.～）.xlsx
+++ b/【名前】通勤交通費精算書（2022.6.1.～）.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsato\Box\オペ部勤怠関連投函フォルダ\☆各種フォーマット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falle\Desktop\アプリ開発\work_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E868E74-9246-4FAB-8907-B166AE2E7AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7692"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前_10月" sheetId="1" r:id="rId1"/>
     <sheet name="（記入例）佐藤由里_10月" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1060,7 +1061,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1795,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1808,17 +1809,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,14 +1851,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1870,7 +1866,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1885,13 +1881,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1902,17 +1895,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1920,15 +1912,11 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="38" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1943,25 +1931,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2016,7 +1998,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2032,15 +2014,15 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,9 +2033,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2091,6 +2070,33 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2169,50 +2175,23 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2249,7 +2228,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形吹き出し 1"/>
+        <xdr:cNvPr id="2" name="四角形吹き出し 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2327,7 +2312,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形吹き出し 2"/>
+        <xdr:cNvPr id="3" name="四角形吹き出し 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2397,7 +2388,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
+        <xdr:cNvPr id="4" name="四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2467,7 +2464,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2787,14 +2790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2813,1642 +2816,1666 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="117" t="s">
+    <row r="1" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="120"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
+    </row>
+    <row r="4" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="93"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
+    </row>
+    <row r="5" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="93"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="91" t="s">
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E7" s="6"/>
-      <c r="F7" s="100" t="s">
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="84"/>
+    </row>
+    <row r="7" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92" t="s">
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="94"/>
-      <c r="J8" s="95" t="s">
+      <c r="I8" s="85"/>
+      <c r="J8" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="96" t="s">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="J9" s="86"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="11" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F11" s="13"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="114"/>
-      <c r="C12" s="86" t="s">
+      <c r="J10" s="90"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F11" s="11"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="104"/>
+      <c r="C12" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139" t="s">
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="140"/>
-    </row>
-    <row r="13" spans="1:14" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="E13" s="14" t="s">
+      <c r="K12" s="139"/>
+    </row>
+    <row r="13" spans="2:14" ht="32.4" x14ac:dyDescent="0.45">
+      <c r="E13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="15" t="s">
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" s="17" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="125"/>
-      <c r="C14" s="116" t="s">
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" s="15" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="124"/>
+      <c r="C14" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="141" t="s">
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="115" t="s">
+      <c r="L14" s="114" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="125"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="126" t="s">
+    <row r="15" spans="2:14" s="15" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="124"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="18" t="s">
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="115"/>
-    </row>
-    <row r="16" spans="1:14" s="17" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="125"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="19" t="s">
+      <c r="K15" s="107"/>
+      <c r="L15" s="114"/>
+    </row>
+    <row r="16" spans="2:14" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="124"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="134" t="s">
+      <c r="F16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="134"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="116"/>
-    </row>
-    <row r="17" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="148" t="s">
+      <c r="L16" s="115"/>
+    </row>
+    <row r="17" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="72" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
-    </row>
-    <row r="18" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="149"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="72" t="s">
+      <c r="E17" s="63"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="75"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
+    </row>
+    <row r="18" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-    </row>
-    <row r="19" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="148" t="s">
+      <c r="E18" s="63"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="75"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+    </row>
+    <row r="19" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="72" t="s">
+      <c r="C19" s="105"/>
+      <c r="D19" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="84"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-    </row>
-    <row r="20" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="72" t="s">
+      <c r="E19" s="63"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="75"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+    </row>
+    <row r="20" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
-    </row>
-    <row r="21" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="148" t="s">
+      <c r="E20" s="63"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="75"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
+    </row>
+    <row r="21" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="72" t="s">
+      <c r="C21" s="105"/>
+      <c r="D21" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
-    </row>
-    <row r="22" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="72" t="s">
+      <c r="E21" s="63"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="75"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
+    </row>
+    <row r="22" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
-    </row>
-    <row r="23" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="148" t="s">
+      <c r="E22" s="63"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="75"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
+    </row>
+    <row r="23" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="72" t="s">
+      <c r="C23" s="105"/>
+      <c r="D23" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="84"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-    </row>
-    <row r="24" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="72" t="s">
+      <c r="E23" s="63"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="75"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="64"/>
+    </row>
+    <row r="24" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="84"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
-    </row>
-    <row r="25" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="148" t="s">
+      <c r="E24" s="63"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="75"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+    </row>
+    <row r="25" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="148"/>
-      <c r="D25" s="72" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="73"/>
-    </row>
-    <row r="26" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="72" t="s">
+      <c r="E25" s="63"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="75"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="64"/>
+    </row>
+    <row r="26" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
-    </row>
-    <row r="27" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="148" t="s">
+      <c r="E26" s="63"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="75"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
+    </row>
+    <row r="27" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="148"/>
-      <c r="D27" s="72" t="s">
+      <c r="C27" s="105"/>
+      <c r="D27" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="73"/>
-    </row>
-    <row r="28" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="72" t="s">
+      <c r="E27" s="63"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="75"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
+    </row>
+    <row r="28" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="73"/>
-    </row>
-    <row r="29" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="148" t="s">
+      <c r="E28" s="63"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="75"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
+    </row>
+    <row r="29" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="148"/>
-      <c r="D29" s="72" t="s">
+      <c r="C29" s="105"/>
+      <c r="D29" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
-    </row>
-    <row r="30" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="72" t="s">
+      <c r="E29" s="63"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="75"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
+    </row>
+    <row r="30" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
-    </row>
-    <row r="31" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="148" t="s">
+      <c r="E30" s="63"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="75"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
+    </row>
+    <row r="31" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="148"/>
-      <c r="D31" s="72" t="s">
+      <c r="C31" s="105"/>
+      <c r="D31" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="84"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
-    </row>
-    <row r="32" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="72" t="s">
+      <c r="E31" s="63"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="75"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
+    </row>
+    <row r="32" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="84"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
-    </row>
-    <row r="33" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="148" t="s">
+      <c r="E32" s="63"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="75"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
+    </row>
+    <row r="33" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="148"/>
-      <c r="D33" s="72" t="s">
+      <c r="C33" s="105"/>
+      <c r="D33" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
-    </row>
-    <row r="34" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="72" t="s">
+      <c r="E33" s="63"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="75"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
+    </row>
+    <row r="34" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="84"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
-    </row>
-    <row r="35" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="148" t="s">
+      <c r="E34" s="63"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="75"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
+    </row>
+    <row r="35" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="148"/>
-      <c r="D35" s="72" t="s">
+      <c r="C35" s="105"/>
+      <c r="D35" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
-    </row>
-    <row r="36" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="72" t="s">
+      <c r="E35" s="63"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="75"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="64"/>
+    </row>
+    <row r="36" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
-    </row>
-    <row r="37" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="148" t="s">
+      <c r="E36" s="63"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="75"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
+    </row>
+    <row r="37" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="148"/>
-      <c r="D37" s="72" t="s">
+      <c r="C37" s="105"/>
+      <c r="D37" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
-    </row>
-    <row r="38" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="149"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="72" t="s">
+      <c r="E37" s="63"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="75"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
+    </row>
+    <row r="38" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="84"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
-    </row>
-    <row r="39" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="148" t="s">
+      <c r="E38" s="63"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="75"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="64"/>
+    </row>
+    <row r="39" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="148"/>
-      <c r="D39" s="72" t="s">
+      <c r="C39" s="105"/>
+      <c r="D39" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="73"/>
-    </row>
-    <row r="40" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="149"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="72" t="s">
+      <c r="E39" s="63"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="75"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="64"/>
+    </row>
+    <row r="40" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="84"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="73"/>
-    </row>
-    <row r="41" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="148" t="s">
+      <c r="E40" s="63"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="75"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="64"/>
+    </row>
+    <row r="41" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="148"/>
-      <c r="D41" s="72" t="s">
+      <c r="C41" s="105"/>
+      <c r="D41" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="73"/>
-    </row>
-    <row r="42" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="149"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="72" t="s">
+      <c r="E41" s="63"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="75"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
+    </row>
+    <row r="42" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="72"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="84"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="73"/>
-    </row>
-    <row r="43" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="148" t="s">
+      <c r="E42" s="63"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="75"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="64"/>
+    </row>
+    <row r="43" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="148"/>
-      <c r="D43" s="72" t="s">
+      <c r="C43" s="105"/>
+      <c r="D43" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="84"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="73"/>
-    </row>
-    <row r="44" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="72" t="s">
+      <c r="E43" s="63"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="75"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="64"/>
+    </row>
+    <row r="44" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="84"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="73"/>
-    </row>
-    <row r="45" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="148" t="s">
+      <c r="E44" s="63"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="75"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="64"/>
+    </row>
+    <row r="45" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="148"/>
-      <c r="D45" s="72" t="s">
+      <c r="C45" s="105"/>
+      <c r="D45" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="84"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="73"/>
-    </row>
-    <row r="46" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="149"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="72" t="s">
+      <c r="E45" s="63"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="75"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="64"/>
+    </row>
+    <row r="46" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="84"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="73"/>
-    </row>
-    <row r="47" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="148" t="s">
+      <c r="E46" s="63"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="75"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="64"/>
+    </row>
+    <row r="47" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="148"/>
-      <c r="D47" s="72" t="s">
+      <c r="C47" s="105"/>
+      <c r="D47" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="72"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="84"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="73"/>
-    </row>
-    <row r="48" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="149"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="72" t="s">
+      <c r="E47" s="63"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="75"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
+    </row>
+    <row r="48" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="84"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="73"/>
-    </row>
-    <row r="49" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="148" t="s">
+      <c r="E48" s="63"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="75"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
+    </row>
+    <row r="49" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="148"/>
-      <c r="D49" s="72" t="s">
+      <c r="C49" s="105"/>
+      <c r="D49" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="84"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="73"/>
-    </row>
-    <row r="50" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="149"/>
-      <c r="C50" s="149"/>
-      <c r="D50" s="72" t="s">
+      <c r="E49" s="63"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="75"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="64"/>
+    </row>
+    <row r="50" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="84"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="73"/>
-    </row>
-    <row r="51" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="148" t="s">
+      <c r="E50" s="63"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="75"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="64"/>
+    </row>
+    <row r="51" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="148"/>
-      <c r="D51" s="72" t="s">
+      <c r="C51" s="105"/>
+      <c r="D51" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="84"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="73"/>
-    </row>
-    <row r="52" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="149"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="72" t="s">
+      <c r="E51" s="63"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="75"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="64"/>
+    </row>
+    <row r="52" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="73"/>
-    </row>
-    <row r="53" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="148" t="s">
+      <c r="E52" s="63"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="75"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
+    </row>
+    <row r="53" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="148"/>
-      <c r="D53" s="72" t="s">
+      <c r="C53" s="105"/>
+      <c r="D53" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="72"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="73"/>
-    </row>
-    <row r="54" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="149"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="72" t="s">
+      <c r="E53" s="63"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="75"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="64"/>
+    </row>
+    <row r="54" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="73"/>
-    </row>
-    <row r="55" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="148" t="s">
+      <c r="E54" s="63"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="75"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
+    </row>
+    <row r="55" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="148"/>
-      <c r="D55" s="72" t="s">
+      <c r="C55" s="105"/>
+      <c r="D55" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="72"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="73"/>
-    </row>
-    <row r="56" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="149"/>
-      <c r="C56" s="149"/>
-      <c r="D56" s="72" t="s">
+      <c r="E55" s="63"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="75"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="64"/>
+    </row>
+    <row r="56" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="73"/>
-    </row>
-    <row r="57" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="148" t="s">
+      <c r="E56" s="63"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="75"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
+    </row>
+    <row r="57" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="148"/>
-      <c r="D57" s="72" t="s">
+      <c r="C57" s="105"/>
+      <c r="D57" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="72"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="84"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="73"/>
-    </row>
-    <row r="58" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="149"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="72" t="s">
+      <c r="E57" s="63"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="75"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
+    </row>
+    <row r="58" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="72"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="84"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="72"/>
-      <c r="L58" s="73"/>
-    </row>
-    <row r="59" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="148" t="s">
+      <c r="E58" s="63"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="75"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="64"/>
+    </row>
+    <row r="59" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="148"/>
-      <c r="D59" s="72" t="s">
+      <c r="C59" s="105"/>
+      <c r="D59" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="72"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="84"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="73"/>
-    </row>
-    <row r="60" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="149"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="72" t="s">
+      <c r="E59" s="63"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="75"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="64"/>
+    </row>
+    <row r="60" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="72"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="84"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="73"/>
-    </row>
-    <row r="61" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="148" t="s">
+      <c r="E60" s="63"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="75"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="64"/>
+    </row>
+    <row r="61" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="148"/>
-      <c r="D61" s="72" t="s">
+      <c r="C61" s="105"/>
+      <c r="D61" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="72"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="84"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="73"/>
-    </row>
-    <row r="62" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="72" t="s">
+      <c r="E61" s="63"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="75"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="64"/>
+    </row>
+    <row r="62" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="72"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="84"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="73"/>
-    </row>
-    <row r="63" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="148" t="s">
+      <c r="E62" s="63"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="75"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="64"/>
+    </row>
+    <row r="63" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="148"/>
-      <c r="D63" s="72" t="s">
+      <c r="C63" s="105"/>
+      <c r="D63" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="72"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="84"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="73"/>
-    </row>
-    <row r="64" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="149"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="72" t="s">
+      <c r="E63" s="63"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="75"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="64"/>
+    </row>
+    <row r="64" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="72"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="84"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="73"/>
-    </row>
-    <row r="65" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="148" t="s">
+      <c r="E64" s="63"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="75"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="64"/>
+    </row>
+    <row r="65" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="148"/>
-      <c r="D65" s="72" t="s">
+      <c r="C65" s="105"/>
+      <c r="D65" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E65" s="72"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="84"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="73"/>
-    </row>
-    <row r="66" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="149"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="72" t="s">
+      <c r="E65" s="63"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="75"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="64"/>
+    </row>
+    <row r="66" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="72"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="84"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="72"/>
-      <c r="L66" s="73"/>
-    </row>
-    <row r="67" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="148" t="s">
+      <c r="E66" s="63"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="75"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="64"/>
+    </row>
+    <row r="67" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="148"/>
-      <c r="D67" s="72" t="s">
+      <c r="C67" s="105"/>
+      <c r="D67" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="72"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="84"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="73"/>
-    </row>
-    <row r="68" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="149"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="72" t="s">
+      <c r="E67" s="63"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="75"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="64"/>
+    </row>
+    <row r="68" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="106"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="72"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="84"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="73"/>
-    </row>
-    <row r="69" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="148" t="s">
+      <c r="E68" s="63"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="75"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="64"/>
+    </row>
+    <row r="69" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="148"/>
-      <c r="D69" s="72" t="s">
+      <c r="C69" s="105"/>
+      <c r="D69" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="72"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="84"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="72"/>
-      <c r="L69" s="73"/>
-    </row>
-    <row r="70" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="149"/>
-      <c r="C70" s="149"/>
-      <c r="D70" s="72" t="s">
+      <c r="E69" s="63"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="75"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="64"/>
+    </row>
+    <row r="70" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="106"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="72"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" s="84"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="73"/>
-    </row>
-    <row r="71" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="148" t="s">
+      <c r="E70" s="63"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="75"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="64"/>
+    </row>
+    <row r="71" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="148"/>
-      <c r="D71" s="72" t="s">
+      <c r="C71" s="105"/>
+      <c r="D71" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="72"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="84"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="73"/>
-    </row>
-    <row r="72" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="149"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="72" t="s">
+      <c r="E71" s="63"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="75"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="64"/>
+    </row>
+    <row r="72" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="106"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="72"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="84"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
-      <c r="K72" s="72"/>
-      <c r="L72" s="73"/>
-    </row>
-    <row r="73" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="148" t="s">
+      <c r="E72" s="63"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="75"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="64"/>
+    </row>
+    <row r="73" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="148"/>
-      <c r="D73" s="72" t="s">
+      <c r="C73" s="105"/>
+      <c r="D73" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="72"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="84"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="73"/>
-    </row>
-    <row r="74" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="149"/>
-      <c r="C74" s="149"/>
-      <c r="D74" s="72" t="s">
+      <c r="E73" s="63"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="75"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="64"/>
+    </row>
+    <row r="74" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="106"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="72"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" s="84"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="73"/>
-    </row>
-    <row r="75" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="148" t="s">
+      <c r="E74" s="63"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="75"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="64"/>
+    </row>
+    <row r="75" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="148"/>
-      <c r="D75" s="72" t="s">
+      <c r="C75" s="105"/>
+      <c r="D75" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="72"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="84"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="73"/>
-    </row>
-    <row r="76" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="149"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="72" t="s">
+      <c r="E75" s="63"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="75"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="64"/>
+    </row>
+    <row r="76" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="106"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="72"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="84"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="72"/>
-      <c r="L76" s="73"/>
-    </row>
-    <row r="77" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="148" t="s">
+      <c r="E76" s="63"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="75"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="64"/>
+    </row>
+    <row r="77" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="148"/>
-      <c r="D77" s="72" t="s">
+      <c r="C77" s="105"/>
+      <c r="D77" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="72"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="84"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="73"/>
-      <c r="K77" s="72"/>
-      <c r="L77" s="73"/>
-    </row>
-    <row r="78" spans="2:12" s="71" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="149"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="72" t="s">
+      <c r="E77" s="63"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="75"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="64"/>
+    </row>
+    <row r="78" spans="2:12" s="62" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="106"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="74"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" s="75"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="72"/>
-      <c r="L78" s="73"/>
-    </row>
-    <row r="79" spans="2:12" s="71" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="76" t="s">
+      <c r="E78" s="65"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="64"/>
+    </row>
+    <row r="79" spans="2:12" s="62" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="78">
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="69">
         <f>COUNTIF(E17:E78,1)</f>
         <v>0</v>
       </c>
-      <c r="F79" s="79"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="81">
+      <c r="F79" s="70"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="72">
         <f>SUM(I17:I78)</f>
         <v>0</v>
       </c>
-      <c r="J79" s="82">
+      <c r="J79" s="73">
         <f>SUM(J17:J78)</f>
         <v>0</v>
       </c>
-      <c r="K79" s="83">
+      <c r="K79" s="74">
         <f>COUNTIF(K17:K78,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21" t="s">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I80" s="21" t="s">
+      <c r="I80" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="21" t="s">
+      <c r="J80" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="22"/>
-      <c r="P81" s="6"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="22"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="26" t="s">
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J82" s="29"/>
-      <c r="P82" s="30"/>
+      <c r="J82" s="26"/>
+      <c r="P82" s="27"/>
     </row>
     <row r="83" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33" t="s">
+      <c r="C83" s="29"/>
+      <c r="D83" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="31">
         <f>E79</f>
         <v>0</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="35"/>
-      <c r="H83" s="36">
+      <c r="G83" s="31"/>
+      <c r="H83" s="32">
         <f>C83*E83</f>
         <v>0</v>
       </c>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-      <c r="P83" s="7"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="34"/>
+      <c r="P83" s="3"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A84" s="39"/>
-      <c r="B84" s="26" t="s">
+      <c r="A84" s="35"/>
+      <c r="B84" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-      <c r="P84" s="7"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="34"/>
+      <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="39"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="33" t="s">
+      <c r="A85" s="35"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="34"/>
-      <c r="E85" s="33" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F85" s="45" t="s">
+      <c r="F85" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G85" s="46"/>
-      <c r="H85" s="36">
+      <c r="G85" s="41"/>
+      <c r="H85" s="32">
         <f>I79</f>
         <v>0</v>
       </c>
-      <c r="I85" s="47" t="s">
+      <c r="I85" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J85" s="48">
+      <c r="J85" s="43">
         <f>H83+H85</f>
         <v>0</v>
       </c>
-      <c r="P85" s="7"/>
+      <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A86" s="39"/>
-      <c r="B86" s="49" t="s">
+      <c r="A86" s="35"/>
+      <c r="B86" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="26" t="s">
+      <c r="C86" s="36"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J86" s="29"/>
-      <c r="P86" s="7"/>
+      <c r="J86" s="26"/>
+      <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B87" s="51"/>
-      <c r="C87" s="33" t="s">
+      <c r="B87" s="46"/>
+      <c r="C87" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="33" t="s">
+      <c r="D87" s="41"/>
+      <c r="E87" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="53" t="s">
+      <c r="F87" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G87" s="33"/>
-      <c r="H87" s="54">
+      <c r="G87" s="30"/>
+      <c r="H87" s="47">
         <f>J79</f>
         <v>0</v>
       </c>
-      <c r="I87" s="55" t="s">
+      <c r="I87" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J87" s="56">
+      <c r="J87" s="49">
         <f>H87</f>
         <v>0</v>
       </c>
-      <c r="P87" s="57"/>
+      <c r="P87" s="50"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B88" s="58"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="60"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="53"/>
     </row>
     <row r="89" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B89" s="51"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="61" t="s">
+      <c r="B89" s="46"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G89" s="62"/>
-      <c r="H89" s="63">
+      <c r="G89" s="55"/>
+      <c r="H89" s="56">
         <f>H83+H85+H87</f>
         <v>0</v>
       </c>
-      <c r="I89" s="64"/>
-      <c r="J89" s="65"/>
-      <c r="P89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="58"/>
+      <c r="P89" s="50"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B90" s="7"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="67"/>
-      <c r="P90" s="57"/>
+      <c r="C90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="P90" s="50"/>
     </row>
     <row r="91" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="92" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="121" t="s">
+      <c r="B92" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="122"/>
-      <c r="D92" s="123"/>
-      <c r="E92" s="118" t="s">
+      <c r="C92" s="121"/>
+      <c r="D92" s="122"/>
+      <c r="E92" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="119"/>
+      <c r="F92" s="118"/>
       <c r="J92" s="3"/>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B93" s="68" t="s">
+      <c r="B93" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="70" t="s">
+      <c r="C93" s="60"/>
+      <c r="D93" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="68" t="s">
+      <c r="E93" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="70" t="s">
+      <c r="F93" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B94" s="142"/>
-      <c r="C94" s="144"/>
-      <c r="D94" s="146"/>
-      <c r="E94" s="142"/>
-      <c r="F94" s="146"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="112"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B95" s="142"/>
-      <c r="C95" s="144"/>
-      <c r="D95" s="146"/>
-      <c r="E95" s="142"/>
-      <c r="F95" s="146"/>
+      <c r="B95" s="108"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="112"/>
+      <c r="E95" s="108"/>
+      <c r="F95" s="112"/>
     </row>
     <row r="96" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B96" s="143"/>
-      <c r="C96" s="145"/>
-      <c r="D96" s="147"/>
-      <c r="E96" s="143"/>
-      <c r="F96" s="147"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="113"/>
+      <c r="E96" s="109"/>
+      <c r="F96" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C17:C18"/>
@@ -4465,72 +4492,28 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E78">
-      <formula1>"1, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"運航管理G,OCG,業務G"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K78">
-      <formula1>"1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C78">
-      <formula1>"D,テレ,テレ/一時出社,AA,A,BA,B,I,F,FA,FB,G,GA,H,b',c',e',K,T,M,N,S,R,U,Q,k',s',m',f',n',p',q',r',L,V,W,X,Y,Z,TR,FF,RT,LS,D/BT,公休,有休,午前休,午後休,午前休(テレ),午後休(テレ),特別休業,特別休暇,欠勤,　,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.6692913385826772" bottom="0.43307086614173229" header="0.39370078740157483" footer="0.27559055118110237"/>
@@ -4540,7 +4523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4566,1720 +4549,1744 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="117" t="s">
+    <row r="1" spans="2:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="120"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="93"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
+    </row>
+    <row r="5" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="93"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="155">
+      <c r="C6" s="140">
         <v>12345</v>
       </c>
-      <c r="D6" s="155"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="91" t="s">
+      <c r="D6" s="140"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E7" s="6"/>
-      <c r="F7" s="100" t="s">
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="84"/>
+    </row>
+    <row r="7" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+    </row>
+    <row r="8" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92" t="s">
+      <c r="D8" s="140"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="94"/>
-      <c r="J8" s="95" t="s">
+      <c r="I8" s="85"/>
+      <c r="J8" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="96" t="s">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="J9" s="86"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="11" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F11" s="13"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="102" t="s">
+      <c r="J10" s="90"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F11" s="11"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139" t="s">
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="140"/>
-    </row>
-    <row r="13" spans="1:13" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="C13" s="109"/>
-      <c r="E13" s="19" t="s">
+      <c r="K12" s="139"/>
+    </row>
+    <row r="13" spans="2:13" ht="32.4" x14ac:dyDescent="0.45">
+      <c r="C13" s="99"/>
+      <c r="E13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="134" t="s">
+      <c r="F13" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="104" t="s">
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="106"/>
-    </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="125"/>
-      <c r="C14" s="116" t="s">
+      <c r="K13" s="96"/>
+    </row>
+    <row r="14" spans="2:13" s="15" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="124"/>
+      <c r="C14" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="141" t="s">
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="115" t="s">
+      <c r="L14" s="114" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="125"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="152" t="s">
+    <row r="15" spans="2:13" s="15" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="124"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="105" t="s">
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="115"/>
-    </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="125"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="103" t="s">
+      <c r="K15" s="107"/>
+      <c r="L15" s="114"/>
+    </row>
+    <row r="16" spans="2:13" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="124"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="134" t="s">
+      <c r="F16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="134"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="107" t="s">
+      <c r="K16" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="116"/>
-    </row>
-    <row r="17" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="148" t="s">
+      <c r="L16" s="115"/>
+    </row>
+    <row r="17" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="110">
+      <c r="E17" s="100">
         <v>1</v>
       </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="73"/>
-    </row>
-    <row r="18" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="149"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="72" t="s">
+      <c r="F17" s="75"/>
+      <c r="G17" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="75"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="64"/>
+    </row>
+    <row r="18" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="106"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="100">
         <v>1</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="73"/>
-    </row>
-    <row r="19" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="148" t="s">
+      <c r="F18" s="75"/>
+      <c r="G18" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="75"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="64"/>
+    </row>
+    <row r="19" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="84"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="113">
+      <c r="E19" s="63"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="75"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="103">
         <v>1</v>
       </c>
-      <c r="L19" s="73"/>
-    </row>
-    <row r="20" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="149"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="72" t="s">
+      <c r="L19" s="64"/>
+    </row>
+    <row r="20" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="106"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E20" s="100">
         <v>1</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="73"/>
-    </row>
-    <row r="21" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="148" t="s">
+      <c r="F20" s="75"/>
+      <c r="G20" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="75"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="64"/>
+    </row>
+    <row r="21" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="100">
         <v>1</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="73"/>
-    </row>
-    <row r="22" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="149"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="72" t="s">
+      <c r="F21" s="75"/>
+      <c r="G21" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="75"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="64"/>
+    </row>
+    <row r="22" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="106"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="111" t="s">
+      <c r="E22" s="63"/>
+      <c r="F22" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="111" t="s">
+      <c r="G22" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="112">
+      <c r="I22" s="102">
         <v>249</v>
       </c>
-      <c r="J22" s="112">
+      <c r="J22" s="102">
         <v>1650</v>
       </c>
-      <c r="K22" s="108"/>
-      <c r="L22" s="112" t="s">
+      <c r="K22" s="98"/>
+      <c r="L22" s="102" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="148" t="s">
+    <row r="23" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="100">
         <v>1</v>
       </c>
-      <c r="F23" s="84"/>
-      <c r="G23" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="84"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="73"/>
-    </row>
-    <row r="24" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="149"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="72" t="s">
+      <c r="F23" s="75"/>
+      <c r="G23" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="75"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="64"/>
+    </row>
+    <row r="24" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="106"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="84"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="113">
+      <c r="E24" s="63"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="75"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="103">
         <v>1</v>
       </c>
-      <c r="L24" s="112" t="s">
+      <c r="L24" s="102" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="148" t="s">
+    <row r="25" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="150" t="s">
+      <c r="C25" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="110">
+      <c r="E25" s="100">
         <v>1</v>
       </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="73"/>
-    </row>
-    <row r="26" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="149"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="72" t="s">
+      <c r="F25" s="75"/>
+      <c r="G25" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="75"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="64"/>
+    </row>
+    <row r="26" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="106"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="110">
+      <c r="E26" s="100">
         <v>1</v>
       </c>
-      <c r="F26" s="84"/>
-      <c r="G26" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="73"/>
-    </row>
-    <row r="27" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="148" t="s">
+      <c r="F26" s="75"/>
+      <c r="G26" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="75"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="64"/>
+    </row>
+    <row r="27" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="73"/>
-    </row>
-    <row r="28" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="149"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="72" t="s">
+      <c r="E27" s="63"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="75"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="64"/>
+    </row>
+    <row r="28" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="106"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="73"/>
-    </row>
-    <row r="29" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="148" t="s">
+      <c r="E28" s="63"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="75"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="64"/>
+    </row>
+    <row r="29" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="113">
+      <c r="E29" s="63"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="75"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="103">
         <v>1</v>
       </c>
-      <c r="L29" s="73"/>
-    </row>
-    <row r="30" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="149"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="72" t="s">
+      <c r="L29" s="64"/>
+    </row>
+    <row r="30" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="106"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="110">
+      <c r="E30" s="100">
         <v>1</v>
       </c>
-      <c r="F30" s="84"/>
-      <c r="G30" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="73"/>
-    </row>
-    <row r="31" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="148" t="s">
+      <c r="F30" s="75"/>
+      <c r="G30" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="75"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="64"/>
+    </row>
+    <row r="31" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="150" t="s">
+      <c r="C31" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="111" t="s">
+      <c r="E31" s="63"/>
+      <c r="F31" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="111" t="s">
+      <c r="G31" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="112">
+      <c r="I31" s="102">
         <v>249</v>
       </c>
-      <c r="J31" s="112">
+      <c r="J31" s="102">
         <v>1720</v>
       </c>
-      <c r="K31" s="108"/>
-      <c r="L31" s="112" t="s">
+      <c r="K31" s="98"/>
+      <c r="L31" s="102" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="149"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="72" t="s">
+    <row r="32" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="106"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="110">
+      <c r="E32" s="100">
         <v>1</v>
       </c>
-      <c r="F32" s="84"/>
-      <c r="G32" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="84"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="73"/>
-    </row>
-    <row r="33" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="148" t="s">
+      <c r="F32" s="75"/>
+      <c r="G32" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="75"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="64"/>
+    </row>
+    <row r="33" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="150" t="s">
+      <c r="C33" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="73"/>
-    </row>
-    <row r="34" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="149"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="72" t="s">
+      <c r="E33" s="63"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="75"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="64"/>
+    </row>
+    <row r="34" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="106"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="84"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="73"/>
-    </row>
-    <row r="35" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="148" t="s">
+      <c r="E34" s="63"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="75"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="64"/>
+    </row>
+    <row r="35" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="150" t="s">
+      <c r="C35" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="73"/>
-    </row>
-    <row r="36" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="149"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="72" t="s">
+      <c r="E35" s="63"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="75"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="64"/>
+    </row>
+    <row r="36" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="106"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="73"/>
-    </row>
-    <row r="37" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="148" t="s">
+      <c r="E36" s="63"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="75"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="64"/>
+    </row>
+    <row r="37" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="150" t="s">
+      <c r="C37" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="73"/>
-    </row>
-    <row r="38" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="149"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="72" t="s">
+      <c r="E37" s="63"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="75"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="64"/>
+    </row>
+    <row r="38" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="106"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="84"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="73"/>
-    </row>
-    <row r="39" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="148" t="s">
+      <c r="E38" s="63"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="75"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="64"/>
+    </row>
+    <row r="39" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="150" t="s">
+      <c r="C39" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="73"/>
-    </row>
-    <row r="40" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="149"/>
-      <c r="C40" s="151"/>
-      <c r="D40" s="72" t="s">
+      <c r="E39" s="63"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="75"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="64"/>
+    </row>
+    <row r="40" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="106"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="84"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="73"/>
-    </row>
-    <row r="41" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="148" t="s">
+      <c r="E40" s="63"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="75"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="64"/>
+    </row>
+    <row r="41" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="72" t="s">
+      <c r="C41" s="144"/>
+      <c r="D41" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="73"/>
-    </row>
-    <row r="42" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="149"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="72" t="s">
+      <c r="E41" s="63"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="75"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="64"/>
+    </row>
+    <row r="42" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="106"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="72"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="84"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="73"/>
-    </row>
-    <row r="43" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="148" t="s">
+      <c r="E42" s="63"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="75"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="64"/>
+    </row>
+    <row r="43" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="150"/>
-      <c r="D43" s="72" t="s">
+      <c r="C43" s="144"/>
+      <c r="D43" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="84"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="73"/>
-    </row>
-    <row r="44" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="149"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="72" t="s">
+      <c r="E43" s="63"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="75"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="64"/>
+    </row>
+    <row r="44" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="106"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="84"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="73"/>
-    </row>
-    <row r="45" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="148" t="s">
+      <c r="E44" s="63"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="75"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="64"/>
+    </row>
+    <row r="45" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="150"/>
-      <c r="D45" s="72" t="s">
+      <c r="C45" s="144"/>
+      <c r="D45" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="84"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="73"/>
-    </row>
-    <row r="46" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="149"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="72" t="s">
+      <c r="E45" s="63"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="75"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="64"/>
+    </row>
+    <row r="46" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="106"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="110"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="84"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="73"/>
-    </row>
-    <row r="47" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="148" t="s">
+      <c r="E46" s="100"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="75"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="64"/>
+    </row>
+    <row r="47" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="150"/>
-      <c r="D47" s="72" t="s">
+      <c r="C47" s="144"/>
+      <c r="D47" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="110"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="84"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="73"/>
-    </row>
-    <row r="48" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="149"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="72" t="s">
+      <c r="E47" s="100"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="75"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="64"/>
+    </row>
+    <row r="48" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="106"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="110"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="84"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="73"/>
-    </row>
-    <row r="49" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="148" t="s">
+      <c r="E48" s="100"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="75"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="64"/>
+    </row>
+    <row r="49" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="150"/>
-      <c r="D49" s="72" t="s">
+      <c r="C49" s="144"/>
+      <c r="D49" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="84"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="73"/>
-    </row>
-    <row r="50" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="149"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="72" t="s">
+      <c r="E49" s="63"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="75"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="64"/>
+    </row>
+    <row r="50" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="106"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="84"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="73"/>
-    </row>
-    <row r="51" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="148" t="s">
+      <c r="E50" s="63"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="75"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="64"/>
+    </row>
+    <row r="51" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="150"/>
-      <c r="D51" s="72" t="s">
+      <c r="C51" s="144"/>
+      <c r="D51" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="84"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="73"/>
-    </row>
-    <row r="52" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="149"/>
-      <c r="C52" s="151"/>
-      <c r="D52" s="72" t="s">
+      <c r="E51" s="63"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="75"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="64"/>
+    </row>
+    <row r="52" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="106"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="73"/>
-    </row>
-    <row r="53" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="148" t="s">
+      <c r="E52" s="63"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="75"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="64"/>
+    </row>
+    <row r="53" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="150"/>
-      <c r="D53" s="72" t="s">
+      <c r="C53" s="144"/>
+      <c r="D53" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="72"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="73"/>
-    </row>
-    <row r="54" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="149"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="72" t="s">
+      <c r="E53" s="63"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="75"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="64"/>
+    </row>
+    <row r="54" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="106"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="73"/>
-    </row>
-    <row r="55" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="148" t="s">
+      <c r="E54" s="63"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="75"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="64"/>
+    </row>
+    <row r="55" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="150"/>
-      <c r="D55" s="72" t="s">
+      <c r="C55" s="144"/>
+      <c r="D55" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="72"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="73"/>
-    </row>
-    <row r="56" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="149"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="72" t="s">
+      <c r="E55" s="63"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="75"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="64"/>
+    </row>
+    <row r="56" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="106"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="73"/>
-    </row>
-    <row r="57" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="148" t="s">
+      <c r="E56" s="63"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="75"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="64"/>
+    </row>
+    <row r="57" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="150"/>
-      <c r="D57" s="72" t="s">
+      <c r="C57" s="144"/>
+      <c r="D57" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="72"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="84"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="73"/>
-    </row>
-    <row r="58" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="149"/>
-      <c r="C58" s="151"/>
-      <c r="D58" s="72" t="s">
+      <c r="E57" s="63"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="75"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="64"/>
+    </row>
+    <row r="58" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="106"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="72"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="84"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="108"/>
-      <c r="L58" s="73"/>
-    </row>
-    <row r="59" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="148" t="s">
+      <c r="E58" s="63"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="75"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="64"/>
+    </row>
+    <row r="59" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="150"/>
-      <c r="D59" s="72" t="s">
+      <c r="C59" s="144"/>
+      <c r="D59" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="72"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="84"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="108"/>
-      <c r="L59" s="73"/>
-    </row>
-    <row r="60" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="149"/>
-      <c r="C60" s="151"/>
-      <c r="D60" s="72" t="s">
+      <c r="E59" s="63"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="75"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="64"/>
+    </row>
+    <row r="60" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="106"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="72"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="84"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="73"/>
-    </row>
-    <row r="61" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="148" t="s">
+      <c r="E60" s="63"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="75"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="98"/>
+      <c r="L60" s="64"/>
+    </row>
+    <row r="61" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="150"/>
-      <c r="D61" s="72" t="s">
+      <c r="C61" s="144"/>
+      <c r="D61" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="72"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="84"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="73"/>
-    </row>
-    <row r="62" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="149"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="72" t="s">
+      <c r="E61" s="63"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="75"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="98"/>
+      <c r="L61" s="64"/>
+    </row>
+    <row r="62" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="106"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="72"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="84"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="73"/>
-    </row>
-    <row r="63" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="148" t="s">
+      <c r="E62" s="63"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="75"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="98"/>
+      <c r="L62" s="64"/>
+    </row>
+    <row r="63" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="150"/>
-      <c r="D63" s="72" t="s">
+      <c r="C63" s="144"/>
+      <c r="D63" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="72"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="84"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="73"/>
-    </row>
-    <row r="64" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="149"/>
-      <c r="C64" s="151"/>
-      <c r="D64" s="72" t="s">
+      <c r="E63" s="63"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="75"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="64"/>
+    </row>
+    <row r="64" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="106"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="72"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="84"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="108"/>
-      <c r="L64" s="73"/>
-    </row>
-    <row r="65" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="148" t="s">
+      <c r="E64" s="63"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="75"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="98"/>
+      <c r="L64" s="64"/>
+    </row>
+    <row r="65" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="150"/>
-      <c r="D65" s="72" t="s">
+      <c r="C65" s="144"/>
+      <c r="D65" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E65" s="72"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="84"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="108"/>
-      <c r="L65" s="73"/>
-    </row>
-    <row r="66" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="149"/>
-      <c r="C66" s="151"/>
-      <c r="D66" s="72" t="s">
+      <c r="E65" s="63"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="75"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="98"/>
+      <c r="L65" s="64"/>
+    </row>
+    <row r="66" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="106"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="72"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="84"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="108"/>
-      <c r="L66" s="73"/>
-    </row>
-    <row r="67" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="148" t="s">
+      <c r="E66" s="63"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="75"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="64"/>
+    </row>
+    <row r="67" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="150"/>
-      <c r="D67" s="72" t="s">
+      <c r="C67" s="144"/>
+      <c r="D67" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="72"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="84"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
-      <c r="K67" s="108"/>
-      <c r="L67" s="73"/>
-    </row>
-    <row r="68" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="149"/>
-      <c r="C68" s="151"/>
-      <c r="D68" s="72" t="s">
+      <c r="E67" s="63"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="75"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="98"/>
+      <c r="L67" s="64"/>
+    </row>
+    <row r="68" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="106"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="72"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="84"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="108"/>
-      <c r="L68" s="73"/>
-    </row>
-    <row r="69" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="148" t="s">
+      <c r="E68" s="63"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="75"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="98"/>
+      <c r="L68" s="64"/>
+    </row>
+    <row r="69" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="150"/>
-      <c r="D69" s="72" t="s">
+      <c r="C69" s="144"/>
+      <c r="D69" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="72"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="84"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="108"/>
-      <c r="L69" s="73"/>
-    </row>
-    <row r="70" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="149"/>
-      <c r="C70" s="151"/>
-      <c r="D70" s="72" t="s">
+      <c r="E69" s="63"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="75"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="98"/>
+      <c r="L69" s="64"/>
+    </row>
+    <row r="70" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="106"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="72"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" s="84"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
-      <c r="K70" s="108"/>
-      <c r="L70" s="73"/>
-    </row>
-    <row r="71" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="148" t="s">
+      <c r="E70" s="63"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="75"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="98"/>
+      <c r="L70" s="64"/>
+    </row>
+    <row r="71" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="150"/>
-      <c r="D71" s="72" t="s">
+      <c r="C71" s="144"/>
+      <c r="D71" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="72"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="84"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
-      <c r="K71" s="108"/>
-      <c r="L71" s="73"/>
-    </row>
-    <row r="72" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="149"/>
-      <c r="C72" s="151"/>
-      <c r="D72" s="72" t="s">
+      <c r="E71" s="63"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="75"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="98"/>
+      <c r="L71" s="64"/>
+    </row>
+    <row r="72" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="106"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="72"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="84"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
-      <c r="K72" s="108"/>
-      <c r="L72" s="73"/>
-    </row>
-    <row r="73" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="148" t="s">
+      <c r="E72" s="63"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="75"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="98"/>
+      <c r="L72" s="64"/>
+    </row>
+    <row r="73" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="150"/>
-      <c r="D73" s="72" t="s">
+      <c r="C73" s="144"/>
+      <c r="D73" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="72"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="84"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="108"/>
-      <c r="L73" s="73"/>
-    </row>
-    <row r="74" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="149"/>
-      <c r="C74" s="151"/>
-      <c r="D74" s="72" t="s">
+      <c r="E73" s="63"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="75"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="98"/>
+      <c r="L73" s="64"/>
+    </row>
+    <row r="74" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="106"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="72"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" s="84"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="108"/>
-      <c r="L74" s="73"/>
-    </row>
-    <row r="75" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="148" t="s">
+      <c r="E74" s="63"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="75"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="64"/>
+    </row>
+    <row r="75" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="150"/>
-      <c r="D75" s="72" t="s">
+      <c r="C75" s="144"/>
+      <c r="D75" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="72"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" s="84"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="108"/>
-      <c r="L75" s="73"/>
-    </row>
-    <row r="76" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="149"/>
-      <c r="C76" s="151"/>
-      <c r="D76" s="72" t="s">
+      <c r="E75" s="63"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="75"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="98"/>
+      <c r="L75" s="64"/>
+    </row>
+    <row r="76" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="106"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="72"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="84"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="108"/>
-      <c r="L76" s="73"/>
-    </row>
-    <row r="77" spans="2:12" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="148" t="s">
+      <c r="E76" s="63"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="75"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="98"/>
+      <c r="L76" s="64"/>
+    </row>
+    <row r="77" spans="2:12" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="150"/>
-      <c r="D77" s="72" t="s">
+      <c r="C77" s="144"/>
+      <c r="D77" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="72"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="84"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="73"/>
-      <c r="K77" s="108"/>
-      <c r="L77" s="73"/>
-    </row>
-    <row r="78" spans="2:12" s="71" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="149"/>
-      <c r="C78" s="151"/>
-      <c r="D78" s="72" t="s">
+      <c r="E77" s="63"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="75"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="98"/>
+      <c r="L77" s="64"/>
+    </row>
+    <row r="78" spans="2:12" s="62" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="106"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="74"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" s="75"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="108"/>
-      <c r="L78" s="73"/>
-    </row>
-    <row r="79" spans="2:12" s="71" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="76" t="s">
+      <c r="E78" s="65"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="98"/>
+      <c r="L78" s="64"/>
+    </row>
+    <row r="79" spans="2:12" s="62" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="78">
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="69">
         <f>COUNTIF(E17:E78,1)</f>
         <v>9</v>
       </c>
-      <c r="F79" s="79"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="81">
+      <c r="F79" s="70"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="72">
         <f>SUM(I17:I78)</f>
         <v>498</v>
       </c>
-      <c r="J79" s="82">
+      <c r="J79" s="73">
         <f>SUM(J17:J78)</f>
         <v>3370</v>
       </c>
-      <c r="K79" s="83">
+      <c r="K79" s="74">
         <f>COUNTIF(K17:K78,1)</f>
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21" t="s">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I80" s="21" t="s">
+      <c r="I80" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="21" t="s">
+      <c r="J80" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="22"/>
-      <c r="O81" s="6"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="22"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="26" t="s">
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J82" s="29"/>
-      <c r="O82" s="30"/>
+      <c r="J82" s="26"/>
+      <c r="O82" s="27"/>
     </row>
     <row r="83" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="32">
+      <c r="C83" s="29">
         <v>292</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="31">
         <f>E79</f>
         <v>9</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="35"/>
-      <c r="H83" s="36">
+      <c r="G83" s="31"/>
+      <c r="H83" s="32">
         <f>C83*E83</f>
         <v>2628</v>
       </c>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-      <c r="O83" s="7"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="34"/>
+      <c r="O83" s="3"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A84" s="39"/>
-      <c r="B84" s="26" t="s">
+      <c r="A84" s="35"/>
+      <c r="B84" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-      <c r="O84" s="7"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="34"/>
+      <c r="O84" s="3"/>
     </row>
     <row r="85" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="39"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="33" t="s">
+      <c r="A85" s="35"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="34"/>
-      <c r="E85" s="33" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F85" s="45" t="s">
+      <c r="F85" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="46"/>
-      <c r="H85" s="36">
+      <c r="G85" s="41"/>
+      <c r="H85" s="32">
         <f>I79</f>
         <v>498</v>
       </c>
-      <c r="I85" s="47" t="s">
+      <c r="I85" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J85" s="48">
+      <c r="J85" s="43">
         <f>H83+H85</f>
         <v>3126</v>
       </c>
-      <c r="O85" s="7"/>
+      <c r="O85" s="3"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A86" s="39"/>
-      <c r="B86" s="49" t="s">
+      <c r="A86" s="35"/>
+      <c r="B86" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="26" t="s">
+      <c r="C86" s="36"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J86" s="29"/>
-      <c r="O86" s="7"/>
+      <c r="J86" s="26"/>
+      <c r="O86" s="3"/>
     </row>
     <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B87" s="51"/>
-      <c r="C87" s="33" t="s">
+      <c r="B87" s="46"/>
+      <c r="C87" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="33" t="s">
+      <c r="D87" s="41"/>
+      <c r="E87" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F87" s="53" t="s">
+      <c r="F87" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="33"/>
-      <c r="H87" s="54">
+      <c r="G87" s="30"/>
+      <c r="H87" s="47">
         <f>J79</f>
         <v>3370</v>
       </c>
-      <c r="I87" s="55" t="s">
+      <c r="I87" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J87" s="56">
+      <c r="J87" s="49">
         <f>H87</f>
         <v>3370</v>
       </c>
-      <c r="O87" s="57"/>
+      <c r="O87" s="50"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B88" s="58"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="60"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="53"/>
     </row>
     <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B89" s="51"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="61" t="s">
+      <c r="B89" s="46"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G89" s="62"/>
-      <c r="H89" s="63">
+      <c r="G89" s="55"/>
+      <c r="H89" s="56">
         <f>H83+H85+H87</f>
         <v>6496</v>
       </c>
-      <c r="I89" s="64"/>
-      <c r="J89" s="65"/>
-      <c r="O89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="58"/>
+      <c r="O89" s="50"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="7"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="67"/>
-      <c r="O90" s="57"/>
+      <c r="C90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="O90" s="50"/>
     </row>
     <row r="91" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="92" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="121" t="s">
+      <c r="B92" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="122"/>
-      <c r="D92" s="123"/>
-      <c r="E92" s="118" t="s">
+      <c r="C92" s="121"/>
+      <c r="D92" s="122"/>
+      <c r="E92" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="119"/>
+      <c r="F92" s="118"/>
       <c r="J92" s="3"/>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="68" t="s">
+      <c r="B93" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="101"/>
-      <c r="D93" s="70" t="s">
+      <c r="C93" s="60"/>
+      <c r="D93" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="68" t="s">
+      <c r="E93" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="70" t="s">
+      <c r="F93" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B94" s="142"/>
-      <c r="C94" s="144"/>
-      <c r="D94" s="146"/>
-      <c r="E94" s="142"/>
-      <c r="F94" s="146"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="112"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B95" s="142"/>
-      <c r="C95" s="144"/>
-      <c r="D95" s="146"/>
-      <c r="E95" s="142"/>
-      <c r="F95" s="146"/>
+      <c r="B95" s="108"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="112"/>
+      <c r="E95" s="108"/>
+      <c r="F95" s="112"/>
     </row>
     <row r="96" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B96" s="143"/>
-      <c r="C96" s="145"/>
-      <c r="D96" s="147"/>
-      <c r="E96" s="143"/>
-      <c r="F96" s="147"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="113"/>
+      <c r="E96" s="109"/>
+      <c r="F96" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:H16"/>
@@ -6296,71 +6303,36 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K78" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"運航管理G,OCG,業務G"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E78" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"1, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C78" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"D,テレ,テレ/一時出社,AA,A,BA,B,I,F,G,H,b',c',e',K,T,M,N,S,R,U,Q,k',s',m',f',n',p',q',L,V,W,X,Y,Z,公休,有休,特別休業,"</formula1>
     </dataValidation>
   </dataValidations>
